--- a/doc/brainstorming.xlsx
+++ b/doc/brainstorming.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="2" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -134,12 +134,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -154,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -170,6 +176,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,16 +592,16 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="93.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="93.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -603,7 +612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -614,7 +623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -625,7 +634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -636,7 +645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -647,7 +656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -658,7 +667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -669,7 +678,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -680,7 +689,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -691,7 +700,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -702,7 +711,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -713,7 +722,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -724,7 +733,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -735,7 +744,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
@@ -746,42 +755,42 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -815,19 +824,19 @@
       <selection activeCell="B3" sqref="B1:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
